--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF006-VaccinationFileTemplate-VSS-MMR.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF006-VaccinationFileTemplate-VSS-MMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swl109\Documents\GitHub\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,16 +161,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -178,28 +178,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +207,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,39 +247,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="HA_MingLiu"/>
-      <family val="3"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -416,8 +410,24 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -698,17 +708,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -735,198 +745,198 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -967,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1003,15 +1013,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1029,7 +1036,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1045,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="52"/>
@@ -1501,449 +1515,450 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="24" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:3" s="13" customFormat="1">
+    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" s="13" customFormat="1">
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="22"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="22"/>
-    </row>
-    <row r="15" spans="1:3" s="16" customFormat="1">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" s="16" customFormat="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" s="16" customFormat="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:3" s="12" customFormat="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" s="13" customFormat="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="22"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="22"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="22"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="22"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="22"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="22"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="22"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="22"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="22"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="22"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="22"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="22"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="22"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="22"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="22"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="22"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="22"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="24"/>
-      <c r="B71" s="22"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="22"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="24"/>
-      <c r="B73" s="22"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="24"/>
-      <c r="B74" s="22"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="24"/>
-      <c r="B75" s="22"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="24"/>
-      <c r="B76" s="22"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="22"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="24"/>
-      <c r="B78" s="22"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="24"/>
-      <c r="B79" s="22"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="22"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="24"/>
-      <c r="B81" s="22"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="22"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="22"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="24"/>
-      <c r="B84" s="22"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="24"/>
-      <c r="B85" s="22"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="22"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="22"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="22"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="22"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="24"/>
-      <c r="B90" s="22"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="22"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="22"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="22"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="22"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="22"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="22"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="22"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="22"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="22"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="24"/>
-      <c r="B100" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="23"/>
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="23"/>
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="23"/>
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="23"/>
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="23"/>
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="23"/>
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="23"/>
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="23"/>
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="23"/>
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="23"/>
+      <c r="B73" s="21"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="23"/>
+      <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="21"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="23"/>
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="23"/>
+      <c r="B77" s="21"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="23"/>
+      <c r="B79" s="21"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="23"/>
+      <c r="B83" s="21"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="23"/>
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="B89" s="21"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="23"/>
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="23"/>
+      <c r="B93" s="21"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="23"/>
+      <c r="B94" s="21"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="23"/>
+      <c r="B95" s="21"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="B96" s="21"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="23"/>
+      <c r="B97" s="21"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="23"/>
+      <c r="B98" s="21"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
+      <c r="B99" s="21"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="23"/>
+      <c r="B100" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1962,35 +1977,35 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="8" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8" style="16" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +2015,7 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2010,161 +2025,162 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" ht="15.75">
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="4:4" s="14" customFormat="1" ht="15.75">
-      <c r="D53" s="15"/>
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="4:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2181,19 +2197,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2241,7 +2257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2249,7 +2265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2257,7 +2273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2265,7 +2281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2273,15 +2289,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="17" customFormat="1">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2290,6 +2306,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
